--- a/spliced/walkingToRunning/2023-03-30_14-26-17/gyroscope_selected.xlsx
+++ b/spliced/walkingToRunning/2023-03-30_14-26-17/gyroscope_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-1.073453715869358</v>
+        <v>-0.4303629223038048</v>
       </c>
       <c r="B2" t="n">
-        <v>1.317456359841992</v>
+        <v>-0.01591238554787755</v>
       </c>
       <c r="C2" t="n">
-        <v>1.647602679474009</v>
+        <v>-0.3245061741155765</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.4519367668809059</v>
+        <v>-1.073453715869358</v>
       </c>
       <c r="B3" t="n">
-        <v>0.3554307395169793</v>
+        <v>1.317456359841992</v>
       </c>
       <c r="C3" t="n">
-        <v>2.567409327050211</v>
+        <v>1.647602679474009</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.7488680436831516</v>
+        <v>-0.4519367668809059</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.1919719578713872</v>
+        <v>0.3554307395169793</v>
       </c>
       <c r="C4" t="n">
-        <v>1.722829146545486</v>
+        <v>2.567409327050211</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.3624176147605125</v>
+        <v>-0.7488680436831516</v>
       </c>
       <c r="B5" t="n">
-        <v>0.2589661164694446</v>
+        <v>-0.1919719578713872</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9208506445924814</v>
+        <v>1.722829146545486</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.5349602806968903</v>
+        <v>0.3624176147605125</v>
       </c>
       <c r="B6" t="n">
-        <v>1.069952379880837</v>
+        <v>0.2589661164694446</v>
       </c>
       <c r="C6" t="n">
-        <v>1.569308005711615</v>
+        <v>0.9208506445924814</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-1.448478241928485</v>
+        <v>-0.5349602806968903</v>
       </c>
       <c r="B7" t="n">
-        <v>0.2915999198160256</v>
+        <v>1.069952379880837</v>
       </c>
       <c r="C7" t="n">
-        <v>2.148881192968673</v>
+        <v>1.569308005711615</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.1628953875864145</v>
+        <v>-1.448478241928485</v>
       </c>
       <c r="B8" t="n">
-        <v>2.143472752150354</v>
+        <v>0.2915999198160256</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7411342482356558</v>
+        <v>2.148881192968673</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5.001680181056456</v>
+        <v>0.1628953875864145</v>
       </c>
       <c r="B9" t="n">
-        <v>0.5944304566423666</v>
+        <v>2.143472752150354</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3106197156325129</v>
+        <v>0.7411342482356558</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2.196256959137806</v>
+        <v>5.001680181056456</v>
       </c>
       <c r="B10" t="n">
-        <v>0.2997662000545932</v>
+        <v>0.5944304566423666</v>
       </c>
       <c r="C10" t="n">
-        <v>-5.213745354854745</v>
+        <v>0.3106197156325129</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1.67380741063286</v>
+        <v>2.196256959137806</v>
       </c>
       <c r="B11" t="n">
-        <v>-6.317273866729519</v>
+        <v>0.2997662000545932</v>
       </c>
       <c r="C11" t="n">
-        <v>-8.133592685731504</v>
+        <v>-5.213745354854745</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-3.399641977638681</v>
+        <v>1.67380741063286</v>
       </c>
       <c r="B12" t="n">
-        <v>-6.691358628393238</v>
+        <v>-6.317273866729519</v>
       </c>
       <c r="C12" t="n">
-        <v>2.842905701709222</v>
+        <v>-8.133592685731504</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-4.124252363413325</v>
+        <v>-3.399641977638681</v>
       </c>
       <c r="B13" t="n">
-        <v>2.333295746009847</v>
+        <v>-6.691358628393238</v>
       </c>
       <c r="C13" t="n">
-        <v>4.042209733434092</v>
+        <v>2.842905701709222</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-1.459144299270755</v>
+        <v>-4.124252363413325</v>
       </c>
       <c r="B14" t="n">
-        <v>10.65372753544007</v>
+        <v>2.333295746009847</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3427767938926811</v>
+        <v>4.042209733434092</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1.466152499703789</v>
+        <v>-1.459144299270755</v>
       </c>
       <c r="B15" t="n">
-        <v>0.4739527562085932</v>
+        <v>10.65372753544007</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.06884271607679748</v>
+        <v>0.3427767938926811</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>7.103254157955869</v>
+        <v>1.466152499703789</v>
       </c>
       <c r="B16" t="n">
-        <v>-3.76272493550757</v>
+        <v>0.4739527562085932</v>
       </c>
       <c r="C16" t="n">
-        <v>-1.125126261921481</v>
+        <v>-0.06884271607679748</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>6.002800260271336</v>
+        <v>7.103254157955869</v>
       </c>
       <c r="B17" t="n">
-        <v>0.1307494660385649</v>
+        <v>-3.76272493550757</v>
       </c>
       <c r="C17" t="n">
-        <v>-1.342715479746586</v>
+        <v>-1.125126261921481</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-0.9153044744699734</v>
+        <v>6.002800260271336</v>
       </c>
       <c r="B18" t="n">
-        <v>0.02712116471860138</v>
+        <v>0.1307494660385649</v>
       </c>
       <c r="C18" t="n">
-        <v>1.211943073432978</v>
+        <v>-1.342715479746586</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-9.937176976885045</v>
+        <v>-0.9153044744699734</v>
       </c>
       <c r="B19" t="n">
-        <v>0.9889363561357609</v>
+        <v>0.02712116471860138</v>
       </c>
       <c r="C19" t="n">
-        <v>9.063289233616347</v>
+        <v>1.211943073432978</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1.660898893820885</v>
+        <v>-9.937176976885045</v>
       </c>
       <c r="B20" t="n">
-        <v>0.03534786866495354</v>
+        <v>0.9889363561357609</v>
       </c>
       <c r="C20" t="n">
-        <v>-1.336030611470736</v>
+        <v>9.063289233616347</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>1.660898893820885</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.03534786866495354</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-1.336030611470736</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
         <v>3.122204536149511</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B22" t="n">
         <v>-5.978971676165282</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C22" t="n">
         <v>-1.097727024254715</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>5.814107340924815</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-1.352176813518396</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-1.502328406361931</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>-0.08294376405329906</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-0.04769127909872317</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.643018007278366</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>-4.552947707536836</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-0.8177924519326552</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2.338970492867865</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-3.988243347456473</v>
+      </c>
+      <c r="B26" t="n">
+        <v>3.882105143631221</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-0.1545383128799389</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-1.513886836646995</v>
+      </c>
+      <c r="B27" t="n">
+        <v>12.12395986789412</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-6.341941402739815</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>4.529875355608262</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.5813608329838935</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-4.973177166546146</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>5.40816806745133</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-3.943533415554054</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-4.557831178192283</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>0.5592678154216362</v>
+      </c>
+      <c r="B30" t="n">
+        <v>2.892510315951151</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-1.382000362171883</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>-7.637950965837174</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-7.75840919158016</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-1.187092877235683</v>
       </c>
     </row>
   </sheetData>
